--- a/SuppFig4/SuppFig4 data.xlsx
+++ b/SuppFig4/SuppFig4 data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcsegura/Desktop/PP4_github/SuppFig4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235DF2C-BA84-C94E-9A4A-F6765C10DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAA6EF8-619E-4D49-B6AE-402E2E0BB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{68A59B8E-C130-9E42-8C70-3263B548EDC3}"/>
+    <workbookView xWindow="-35200" yWindow="1440" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{68A59B8E-C130-9E42-8C70-3263B548EDC3}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppFig 3C, D" sheetId="1" r:id="rId1"/>
     <sheet name="STATS" sheetId="2" r:id="rId2"/>
+    <sheet name="Kruskal Wallis Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="67">
   <si>
     <t>file name</t>
   </si>
@@ -224,12 +225,27 @@
   <si>
     <t>SuppFig 4D</t>
   </si>
+  <si>
+    <t>H-statistic</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Kruskal Wallis Test</t>
+  </si>
+  <si>
+    <t>Dunn's Test for Multiple Comparisons</t>
+  </si>
+  <si>
+    <t>Dunn's Test (No Correction)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +264,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,11 +294,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5322,7 +5349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B20EF-459B-EC49-A3CE-43CE68540758}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6060,4 +6087,893 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE20A35-1A54-0141-AD56-5C184004A6E3}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1.4610518684531799</v>
+      </c>
+      <c r="F3">
+        <v>0.691288264134581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>20.762165228777</v>
+      </c>
+      <c r="F4">
+        <v>1.17953378100104E-4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5.8837360265150096</v>
+      </c>
+      <c r="F5">
+        <v>0.117405783899724</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>12.3670353271682</v>
+      </c>
+      <c r="F6">
+        <v>6.2260037620980296E-3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>4.1816012697273299</v>
+      </c>
+      <c r="K10">
+        <v>4.1928451570613801</v>
+      </c>
+      <c r="L10">
+        <v>1.2661082472009599</v>
+      </c>
+      <c r="M10">
+        <v>1.2811358266052699</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.82162999999999997</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>4.1816012697273299</v>
+      </c>
+      <c r="K11">
+        <v>3.7805389364528201</v>
+      </c>
+      <c r="L11">
+        <v>1.2661082472009599</v>
+      </c>
+      <c r="M11">
+        <v>0.77850588850213798</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.40776499999999999</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>4.1816012697273299</v>
+      </c>
+      <c r="K12">
+        <v>5.2287342834073502</v>
+      </c>
+      <c r="L12">
+        <v>1.2661082472009599</v>
+      </c>
+      <c r="M12">
+        <v>2.9973366011897999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.55202700000000005</v>
+      </c>
+      <c r="R12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>5.8197186870158504</v>
+      </c>
+      <c r="K13">
+        <v>7.10923964223515</v>
+      </c>
+      <c r="L13">
+        <v>2.4291630749448001</v>
+      </c>
+      <c r="M13">
+        <v>2.7735819473976302</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.273561</v>
+      </c>
+      <c r="R13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>5.8197186870158504</v>
+      </c>
+      <c r="K14">
+        <v>5.4684119475994004</v>
+      </c>
+      <c r="L14">
+        <v>2.4291630749448001</v>
+      </c>
+      <c r="M14">
+        <v>2.4123348069194801</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.68216200000000005</v>
+      </c>
+      <c r="R14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>5.8197186870158504</v>
+      </c>
+      <c r="K15">
+        <v>8.0958863345773704</v>
+      </c>
+      <c r="L15">
+        <v>2.4291630749448001</v>
+      </c>
+      <c r="M15">
+        <v>2.5090918991848299</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>4.37677E-2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>1.66273437089223</v>
+      </c>
+      <c r="K16">
+        <v>2.2817784259081799</v>
+      </c>
+      <c r="L16">
+        <v>0.417011528120731</v>
+      </c>
+      <c r="M16">
+        <v>0.69452097129393897</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>7.18726E-3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>1.66273437089223</v>
+      </c>
+      <c r="K17">
+        <v>2.3966486043776798</v>
+      </c>
+      <c r="L17">
+        <v>0.417011528120731</v>
+      </c>
+      <c r="M17">
+        <v>0.75343249463196305</v>
+      </c>
+      <c r="N17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2.58414E-3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>1.66273437089223</v>
+      </c>
+      <c r="K18">
+        <v>2.92755566896999</v>
+      </c>
+      <c r="L18">
+        <v>0.417011528120731</v>
+      </c>
+      <c r="M18">
+        <v>0.982972520506464</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4.3822600000000003E-5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>3.6871410043718802</v>
+      </c>
+      <c r="K19">
+        <v>5.3383562551235402</v>
+      </c>
+      <c r="L19">
+        <v>1.3736238210479601</v>
+      </c>
+      <c r="M19">
+        <v>1.9022689328471101</v>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2.8539100000000001E-2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>3.6871410043718802</v>
+      </c>
+      <c r="K20">
+        <v>4.6967640029618103</v>
+      </c>
+      <c r="L20">
+        <v>1.3736238210479601</v>
+      </c>
+      <c r="M20">
+        <v>2.3058932017426601</v>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.30593700000000001</v>
+      </c>
+      <c r="R20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>3.6871410043718802</v>
+      </c>
+      <c r="K21">
+        <v>6.4260293654633198</v>
+      </c>
+      <c r="L21">
+        <v>1.3736238210479601</v>
+      </c>
+      <c r="M21">
+        <v>1.46103576530213</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>6.6972899999999998E-4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:R8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>